--- a/hypatia/examples/Planning/parameters/parameters_reg1.xlsx
+++ b/hypatia/examples/Planning/parameters/parameters_reg1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negar\Documents\GitHub\hypatia\Examples\Utopia2_planning_single_node_DN\parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/negarnamazifard/Documents/GitHub/Hypatia_SESAM/examples/Utopia2_planning_single_node_DN/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35968DD6-452B-6F4D-A589-4192ED7E9FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660" firstSheet="18" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F_OM" sheetId="1" r:id="rId1"/>
@@ -176,7 +177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,6 +331,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -365,6 +383,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -540,16 +575,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +601,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -589,12 +624,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -617,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -640,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -663,7 +698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -686,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -709,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -732,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -755,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -778,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -801,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -824,7 +859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -858,14 +893,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -886,7 +921,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,7 +950,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -956,12 +991,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1002,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1043,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1125,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1166,7 +1201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1207,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1248,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1289,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1330,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1371,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1428,14 +1463,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,7 +1478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1451,7 +1486,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1459,7 +1494,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1467,7 +1502,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1475,7 +1510,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1483,7 +1518,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1491,7 +1526,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1499,7 +1534,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1507,7 +1542,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1515,7 +1550,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1523,7 +1558,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1537,21 +1572,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.47265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.20703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1568,7 +1603,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1591,12 +1626,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1630,21 +1665,21 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.47265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.20703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1696,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1684,12 +1719,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1712,7 +1747,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1735,7 +1770,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1758,7 +1793,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1781,7 +1816,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1804,7 +1839,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1827,7 +1862,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1850,7 +1885,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1873,7 +1908,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1896,7 +1931,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1919,7 +1954,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1953,23 +1988,23 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.47265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.20703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.26171875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.20703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1990,7 +2025,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2019,7 +2054,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2060,12 +2095,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -2106,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2147,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -2188,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -2229,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2270,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -2311,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2352,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -2393,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -2434,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2475,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -2532,14 +2567,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2556,7 +2591,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2579,12 +2614,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2607,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -2630,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2653,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2676,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2699,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2722,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2745,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -2768,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -2791,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -2814,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -2848,14 +2883,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2872,7 +2907,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2895,12 +2930,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -2923,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -2946,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2969,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2992,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3015,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -3038,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3061,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -3084,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -3107,7 +3142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -3130,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -3164,14 +3199,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3188,7 +3223,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3211,12 +3246,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3239,7 +3274,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3262,7 +3297,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3285,7 +3320,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -3308,7 +3343,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3331,7 +3366,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -3354,7 +3389,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3377,7 +3412,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -3400,7 +3435,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -3423,7 +3458,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -3446,7 +3481,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -3480,14 +3515,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3504,7 +3539,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3527,12 +3562,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3555,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3578,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3601,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -3624,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3647,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -3670,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3693,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -3716,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -3739,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -3762,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -3796,14 +3831,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3820,7 +3855,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3843,12 +3878,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3871,7 +3906,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3894,7 +3929,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3917,7 +3952,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -3940,7 +3975,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -3963,7 +3998,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -3986,7 +4021,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -4009,7 +4044,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -4032,7 +4067,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,7 +4090,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -4078,7 +4113,7 @@
         <v>10000000000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -4112,20 +4147,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="15.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.20703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4142,7 +4177,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4165,12 +4200,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -4193,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -4216,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -4239,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -4262,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -4285,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -4308,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -4331,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -4354,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -4377,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -4400,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -4434,16 +4469,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -4451,7 +4486,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -4459,7 +4494,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -4467,7 +4502,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -4475,7 +4510,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -4483,7 +4518,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -4491,7 +4526,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -4499,7 +4534,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -4507,7 +4542,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -4515,7 +4550,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4523,7 +4558,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -4531,7 +4566,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -4545,19 +4580,19 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4574,7 +4609,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4597,12 +4632,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -4636,16 +4671,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4662,7 +4697,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4685,12 +4720,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -4724,16 +4759,16 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4750,7 +4785,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4773,12 +4808,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -4812,21 +4847,21 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.62890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.3671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -4846,7 +4881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -4866,7 +4901,7 @@
         <v>16819.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>39</v>
@@ -4884,7 +4919,7 @@
         <v>4204.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>40</v>
@@ -4902,7 +4937,7 @@
         <v>11212.800000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>41</v>
@@ -4920,7 +4955,7 @@
         <v>2803.2000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -4940,7 +4975,7 @@
         <v>17660.16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>39</v>
@@ -4958,7 +4993,7 @@
         <v>4415.04</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>40</v>
@@ -4976,7 +5011,7 @@
         <v>11773.440000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>41</v>
@@ -4994,7 +5029,7 @@
         <v>2943.360000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -5014,7 +5049,7 @@
         <v>18543.168000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>39</v>
@@ -5032,7 +5067,7 @@
         <v>4635.7920000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>40</v>
@@ -5050,7 +5085,7 @@
         <v>12362.112000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>41</v>
@@ -5068,7 +5103,7 @@
         <v>3090.5280000000012</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -5088,7 +5123,7 @@
         <v>19470.326400000002</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>39</v>
@@ -5106,7 +5141,7 @@
         <v>4867.5816000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>40</v>
@@ -5124,7 +5159,7 @@
         <v>12980.217600000005</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>41</v>
@@ -5142,7 +5177,7 @@
         <v>3245.0544000000014</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -5162,7 +5197,7 @@
         <v>20443.842720000004</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>39</v>
@@ -5180,7 +5215,7 @@
         <v>5110.960680000001</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>40</v>
@@ -5198,7 +5233,7 @@
         <v>13629.228480000007</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
         <v>41</v>
@@ -5216,7 +5251,7 @@
         <v>3407.3071200000018</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
@@ -5236,7 +5271,7 @@
         <v>21466.034856000006</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>39</v>
@@ -5254,7 +5289,7 @@
         <v>5366.5087140000014</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>40</v>
@@ -5272,7 +5307,7 @@
         <v>14310.689904000008</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
         <v>41</v>
@@ -5290,7 +5325,7 @@
         <v>3577.672476000002</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
@@ -5310,7 +5345,7 @@
         <v>22539.336598800008</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>39</v>
@@ -5328,7 +5363,7 @@
         <v>5634.8341497000019</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>40</v>
@@ -5346,7 +5381,7 @@
         <v>15026.224399200009</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
         <v>41</v>
@@ -5364,7 +5399,7 @@
         <v>3756.5560998000024</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
@@ -5384,7 +5419,7 @@
         <v>23666.303428740008</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
         <v>39</v>
@@ -5402,7 +5437,7 @@
         <v>5916.575857185002</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
         <v>40</v>
@@ -5420,7 +5455,7 @@
         <v>15777.535619160011</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>41</v>
@@ -5438,7 +5473,7 @@
         <v>3944.3839047900028</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
@@ -5458,7 +5493,7 @@
         <v>24849.618600177007</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
         <v>39</v>
@@ -5476,7 +5511,7 @@
         <v>6212.4046500442519</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>40</v>
@@ -5494,7 +5529,7 @@
         <v>16566.412400118013</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
         <v>41</v>
@@ -5512,7 +5547,7 @@
         <v>4141.6031000295034</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
@@ -5532,7 +5567,7 @@
         <v>26092.09953018586</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
         <v>39</v>
@@ -5550,7 +5585,7 @@
         <v>6523.0248825464651</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
         <v>40</v>
@@ -5568,7 +5603,7 @@
         <v>17394.733020123917</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
         <v>41</v>
@@ -5586,7 +5621,7 @@
         <v>4348.6832550309791</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>22</v>
       </c>
@@ -5606,7 +5641,7 @@
         <v>27396.704506695154</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>39</v>
@@ -5624,7 +5659,7 @@
         <v>6849.1761266737885</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
         <v>40</v>
@@ -5642,7 +5677,7 @@
         <v>18264.469671130115</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
         <v>41</v>
@@ -5662,37 +5697,37 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="15.26171875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.20703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5709,7 +5744,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -5732,7 +5767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -5740,7 +5775,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -5766,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>39</v>
@@ -5790,7 +5825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>40</v>
@@ -5814,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>41</v>
@@ -5838,7 +5873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -5864,7 +5899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>39</v>
@@ -5888,7 +5923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>40</v>
@@ -5912,7 +5947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>41</v>
@@ -5936,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -5962,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>39</v>
@@ -5986,7 +6021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>40</v>
@@ -6010,7 +6045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>41</v>
@@ -6034,7 +6069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -6060,7 +6095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>39</v>
@@ -6084,7 +6119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>40</v>
@@ -6108,7 +6143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>41</v>
@@ -6132,7 +6167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -6158,7 +6193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
         <v>39</v>
@@ -6182,7 +6217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>40</v>
@@ -6206,7 +6241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>41</v>
@@ -6230,7 +6265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -6256,7 +6291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
         <v>39</v>
@@ -6280,7 +6315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>40</v>
@@ -6304,7 +6339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>41</v>
@@ -6328,7 +6363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
@@ -6354,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
         <v>39</v>
@@ -6378,7 +6413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
         <v>40</v>
@@ -6402,7 +6437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
         <v>41</v>
@@ -6426,7 +6461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
@@ -6452,7 +6487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>39</v>
@@ -6476,7 +6511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
         <v>40</v>
@@ -6500,7 +6535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
         <v>41</v>
@@ -6524,7 +6559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
@@ -6550,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
         <v>39</v>
@@ -6574,7 +6609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
         <v>40</v>
@@ -6598,7 +6633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
         <v>41</v>
@@ -6622,7 +6657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>21</v>
       </c>
@@ -6648,7 +6683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
         <v>39</v>
@@ -6672,7 +6707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
         <v>40</v>
@@ -6696,7 +6731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>41</v>
@@ -6720,7 +6755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>22</v>
       </c>
@@ -6746,7 +6781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
         <v>39</v>
@@ -6770,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
         <v>40</v>
@@ -6794,7 +6829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
         <v>41</v>
@@ -6820,6 +6855,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A40:A43"/>
@@ -6829,25 +6869,20 @@
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6860,7 +6895,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -6877,7 +6912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -6885,7 +6920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -6905,7 +6940,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>39</v>
@@ -6923,7 +6958,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>40</v>
@@ -6941,7 +6976,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>41</v>
@@ -6959,7 +6994,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -6979,7 +7014,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>39</v>
@@ -6997,7 +7032,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>40</v>
@@ -7015,7 +7050,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>41</v>
@@ -7033,7 +7068,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -7053,7 +7088,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>39</v>
@@ -7071,7 +7106,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>40</v>
@@ -7089,7 +7124,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>41</v>
@@ -7107,7 +7142,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -7127,7 +7162,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>39</v>
@@ -7145,7 +7180,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>40</v>
@@ -7163,7 +7198,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>41</v>
@@ -7181,7 +7216,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -7201,7 +7236,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
         <v>39</v>
@@ -7219,7 +7254,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>40</v>
@@ -7237,7 +7272,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>41</v>
@@ -7255,7 +7290,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -7275,7 +7310,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
         <v>39</v>
@@ -7293,7 +7328,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>40</v>
@@ -7311,7 +7346,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>41</v>
@@ -7329,7 +7364,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
@@ -7349,7 +7384,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
         <v>39</v>
@@ -7367,7 +7402,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
         <v>40</v>
@@ -7385,7 +7420,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
         <v>41</v>
@@ -7403,7 +7438,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
@@ -7423,7 +7458,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>39</v>
@@ -7441,7 +7476,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
         <v>40</v>
@@ -7459,7 +7494,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
         <v>41</v>
@@ -7477,7 +7512,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
@@ -7497,7 +7532,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
         <v>39</v>
@@ -7515,7 +7550,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
         <v>40</v>
@@ -7533,7 +7568,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
         <v>41</v>
@@ -7551,7 +7586,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>21</v>
       </c>
@@ -7571,7 +7606,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
         <v>39</v>
@@ -7589,7 +7624,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
         <v>40</v>
@@ -7607,7 +7642,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>41</v>
@@ -7625,7 +7660,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>22</v>
       </c>
@@ -7645,7 +7680,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
         <v>39</v>
@@ -7663,7 +7698,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
         <v>40</v>
@@ -7681,7 +7716,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
         <v>41</v>
@@ -7701,6 +7736,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A44:A47"/>
@@ -7709,27 +7749,22 @@
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A32:A35"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7742,7 +7777,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7759,7 +7794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -7767,7 +7802,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -7787,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>39</v>
@@ -7805,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>40</v>
@@ -7823,7 +7858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>41</v>
@@ -7841,7 +7876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -7861,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>39</v>
@@ -7879,7 +7914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>40</v>
@@ -7897,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>41</v>
@@ -7915,7 +7950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -7935,7 +7970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>39</v>
@@ -7953,7 +7988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>40</v>
@@ -7971,7 +8006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>41</v>
@@ -7989,7 +8024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -8009,7 +8044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>39</v>
@@ -8027,7 +8062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>40</v>
@@ -8045,7 +8080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>41</v>
@@ -8063,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -8083,7 +8118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
         <v>39</v>
@@ -8101,7 +8136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>40</v>
@@ -8119,7 +8154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>41</v>
@@ -8137,7 +8172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -8157,7 +8192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
         <v>39</v>
@@ -8175,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>40</v>
@@ -8193,7 +8228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>41</v>
@@ -8211,7 +8246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
@@ -8231,7 +8266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
         <v>39</v>
@@ -8249,7 +8284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
         <v>40</v>
@@ -8267,7 +8302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
         <v>41</v>
@@ -8285,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
@@ -8305,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>39</v>
@@ -8323,7 +8358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
         <v>40</v>
@@ -8341,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
         <v>41</v>
@@ -8359,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>20</v>
       </c>
@@ -8379,7 +8414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
         <v>39</v>
@@ -8397,7 +8432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
         <v>40</v>
@@ -8415,7 +8450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
         <v>41</v>
@@ -8433,7 +8468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>21</v>
       </c>
@@ -8453,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
         <v>39</v>
@@ -8471,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
         <v>40</v>
@@ -8489,7 +8524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>41</v>
@@ -8507,7 +8542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>22</v>
       </c>
@@ -8527,7 +8562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
         <v>39</v>
@@ -8545,7 +8580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
         <v>40</v>
@@ -8563,7 +8598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="1" t="s">
         <v>41</v>
@@ -8583,6 +8618,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="A44:A47"/>
@@ -8591,33 +8631,28 @@
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A32:A35"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.47265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.20703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8634,7 +8669,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8657,12 +8692,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -8685,7 +8720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -8708,7 +8743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -8731,7 +8766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -8754,7 +8789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -8777,7 +8812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -8800,7 +8835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -8823,7 +8858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -8846,7 +8881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -8869,7 +8904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -8892,7 +8927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -8926,14 +8961,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8946,7 +8981,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -8963,12 +8998,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -8985,7 +9020,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -9002,7 +9037,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -9019,7 +9054,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -9036,7 +9071,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -9053,7 +9088,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -9070,7 +9105,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -9087,7 +9122,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -9104,7 +9139,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -9121,7 +9156,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -9138,7 +9173,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -9165,14 +9200,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9185,7 +9220,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9202,12 +9237,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -9224,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -9241,7 +9276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -9258,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -9275,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -9292,7 +9327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -9309,7 +9344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -9326,7 +9361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -9343,7 +9378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -9360,7 +9395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -9377,7 +9412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -9404,19 +9439,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.47265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.20703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9433,7 +9468,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9456,12 +9491,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -9484,7 +9519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -9507,7 +9542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -9530,7 +9565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -9553,7 +9588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -9576,7 +9611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -9599,7 +9634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -9622,7 +9657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -9645,7 +9680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -9668,7 +9703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -9691,7 +9726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -9725,21 +9760,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.47265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.20703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9756,7 +9791,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9779,12 +9814,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -9807,7 +9842,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -9830,7 +9865,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -9853,7 +9888,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -9876,7 +9911,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -9899,7 +9934,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -9922,7 +9957,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -9945,7 +9980,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -9968,7 +10003,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -9991,7 +10026,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -10014,7 +10049,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -10048,16 +10083,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10070,7 +10105,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -10087,17 +10122,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4">
-        <v>19.288178538394437</v>
+        <v>420</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10109,12 +10144,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5">
-        <v>19.288178538394437</v>
+        <v>420</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10126,12 +10161,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6">
-        <v>19.288178538394437</v>
+        <v>420</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -10143,12 +10178,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>19.288178538394437</v>
+        <v>420</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -10160,12 +10195,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8">
-        <v>19.288178538394437</v>
+        <v>420</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -10177,12 +10212,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9">
-        <v>19.288178538394437</v>
+        <v>420</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -10194,12 +10229,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10">
-        <v>19.288178538394437</v>
+        <v>420</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -10211,12 +10246,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11">
-        <v>19.288178538394437</v>
+        <v>420</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -10228,12 +10263,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12">
-        <v>19.288178538394437</v>
+        <v>420</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -10245,12 +10280,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13">
-        <v>19.288178538394437</v>
+        <v>420</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -10262,12 +10297,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14">
-        <v>19.288178538394437</v>
+        <v>420</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -10289,17 +10324,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.47265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10312,7 +10347,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -10329,12 +10364,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -10351,7 +10386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -10368,7 +10403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -10385,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -10402,7 +10437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -10419,7 +10454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -10436,7 +10471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -10453,7 +10488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -10470,7 +10505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -10487,7 +10522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -10504,7 +10539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
